--- a/Code/Results/Cases/Case_1_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005640760340799</v>
+        <v>1.03171436517933</v>
       </c>
       <c r="D2">
-        <v>1.048665908913254</v>
+        <v>1.055960129672362</v>
       </c>
       <c r="E2">
-        <v>1.011286340006155</v>
+        <v>1.031250237884396</v>
       </c>
       <c r="F2">
-        <v>1.043889091948056</v>
+        <v>1.059412329378979</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056417610966016</v>
+        <v>1.044126946388541</v>
       </c>
       <c r="J2">
-        <v>1.02765405631872</v>
+        <v>1.036848569362812</v>
       </c>
       <c r="K2">
-        <v>1.059486462012441</v>
+        <v>1.058699152972836</v>
       </c>
       <c r="L2">
-        <v>1.022590646000643</v>
+        <v>1.034058899110663</v>
       </c>
       <c r="M2">
-        <v>1.054769057358803</v>
+        <v>1.062141903793278</v>
       </c>
       <c r="N2">
-        <v>1.029113442952261</v>
+        <v>1.0383210132595</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009976237755914</v>
+        <v>1.032626417823843</v>
       </c>
       <c r="D3">
-        <v>1.052213894673308</v>
+        <v>1.05671118962624</v>
       </c>
       <c r="E3">
-        <v>1.014740684217287</v>
+        <v>1.032024219988418</v>
       </c>
       <c r="F3">
-        <v>1.04807915965656</v>
+        <v>1.060338388259914</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058018009231886</v>
+        <v>1.044393710848061</v>
       </c>
       <c r="J3">
-        <v>1.03019858630416</v>
+        <v>1.037402803485467</v>
       </c>
       <c r="K3">
-        <v>1.062219590014138</v>
+        <v>1.059263916739493</v>
       </c>
       <c r="L3">
-        <v>1.025188366422799</v>
+        <v>1.034641498399953</v>
       </c>
       <c r="M3">
-        <v>1.058131709043175</v>
+        <v>1.062881904074405</v>
       </c>
       <c r="N3">
-        <v>1.031661586462142</v>
+        <v>1.038876034458181</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012725876327214</v>
+        <v>1.033217045858615</v>
       </c>
       <c r="D4">
-        <v>1.054464542095116</v>
+        <v>1.05719727443511</v>
       </c>
       <c r="E4">
-        <v>1.016937347517633</v>
+        <v>1.032525818448516</v>
       </c>
       <c r="F4">
-        <v>1.05074032136387</v>
+        <v>1.060938235728272</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059022201638248</v>
+        <v>1.04456511889427</v>
       </c>
       <c r="J4">
-        <v>1.031809561230174</v>
+        <v>1.037761274941911</v>
       </c>
       <c r="K4">
-        <v>1.063947232218511</v>
+        <v>1.059628789410836</v>
       </c>
       <c r="L4">
-        <v>1.026835562700944</v>
+        <v>1.035018600861784</v>
       </c>
       <c r="M4">
-        <v>1.060262623097815</v>
+        <v>1.063360728071007</v>
       </c>
       <c r="N4">
-        <v>1.033274849157331</v>
+        <v>1.03923501498521</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013868946944717</v>
+        <v>1.033465457082592</v>
       </c>
       <c r="D5">
-        <v>1.055400225995255</v>
+        <v>1.057401646623391</v>
       </c>
       <c r="E5">
-        <v>1.01785190158487</v>
+        <v>1.032736875826509</v>
       </c>
       <c r="F5">
-        <v>1.051847466777756</v>
+        <v>1.061190559814199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059437026272196</v>
+        <v>1.044636889337181</v>
       </c>
       <c r="J5">
-        <v>1.032478565996585</v>
+        <v>1.037911938242098</v>
       </c>
       <c r="K5">
-        <v>1.064664010305162</v>
+        <v>1.059782044890492</v>
       </c>
       <c r="L5">
-        <v>1.027520219227036</v>
+        <v>1.035177162820825</v>
       </c>
       <c r="M5">
-        <v>1.061148016316401</v>
+        <v>1.063562022984829</v>
       </c>
       <c r="N5">
-        <v>1.033944803987247</v>
+        <v>1.039385892244565</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014060131313039</v>
+        <v>1.033507172909616</v>
       </c>
       <c r="D6">
-        <v>1.055556725362404</v>
+        <v>1.057435962866928</v>
       </c>
       <c r="E6">
-        <v>1.018004944461107</v>
+        <v>1.032772324118876</v>
       </c>
       <c r="F6">
-        <v>1.052032691597268</v>
+        <v>1.061232934785349</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059506251724661</v>
+        <v>1.044648922914034</v>
       </c>
       <c r="J6">
-        <v>1.032590418189444</v>
+        <v>1.037937233010664</v>
       </c>
       <c r="K6">
-        <v>1.064783809493109</v>
+        <v>1.05980776909203</v>
       </c>
       <c r="L6">
-        <v>1.027634724092624</v>
+        <v>1.035203787687318</v>
       </c>
       <c r="M6">
-        <v>1.061296074296734</v>
+        <v>1.063595821089726</v>
       </c>
       <c r="N6">
-        <v>1.034056815023049</v>
+        <v>1.039411222934604</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012741200100775</v>
+        <v>1.033220364705956</v>
       </c>
       <c r="D7">
-        <v>1.054477085550292</v>
+        <v>1.057200005181225</v>
       </c>
       <c r="E7">
-        <v>1.016949602507224</v>
+        <v>1.032528637880872</v>
       </c>
       <c r="F7">
-        <v>1.050755160204598</v>
+        <v>1.060941606714603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05902777315479</v>
+        <v>1.044566079032833</v>
       </c>
       <c r="J7">
-        <v>1.031818532593517</v>
+        <v>1.037763288263228</v>
       </c>
       <c r="K7">
-        <v>1.063956846920422</v>
+        <v>1.059630837757833</v>
       </c>
       <c r="L7">
-        <v>1.026844741546176</v>
+        <v>1.035020719465428</v>
       </c>
       <c r="M7">
-        <v>1.060274494389347</v>
+        <v>1.063363417795762</v>
       </c>
       <c r="N7">
-        <v>1.033283833261039</v>
+        <v>1.039237031165675</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007117772582339</v>
+        <v>1.032022499884766</v>
       </c>
       <c r="D8">
-        <v>1.049874509055481</v>
+        <v>1.056213932531792</v>
       </c>
       <c r="E8">
-        <v>1.012461914812062</v>
+        <v>1.031511646345997</v>
       </c>
       <c r="F8">
-        <v>1.045315754576494</v>
+        <v>1.059725164894339</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056965075611745</v>
+        <v>1.044217350066567</v>
       </c>
       <c r="J8">
-        <v>1.028521499011582</v>
+        <v>1.037035906904836</v>
       </c>
       <c r="K8">
-        <v>1.060418760906566</v>
+        <v>1.058890134269323</v>
       </c>
       <c r="L8">
-        <v>1.023475686540148</v>
+        <v>1.034255765414866</v>
       </c>
       <c r="M8">
-        <v>1.055914983482661</v>
+        <v>1.062391990722374</v>
       </c>
       <c r="N8">
-        <v>1.029982117513243</v>
+        <v>1.038508616842322</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9967601655614108</v>
+        <v>1.029915348521731</v>
       </c>
       <c r="D9">
-        <v>1.041403453988117</v>
+        <v>1.054477170137107</v>
       </c>
       <c r="E9">
-        <v>1.004244722662812</v>
+        <v>1.029725615884296</v>
       </c>
       <c r="F9">
-        <v>1.03532893691617</v>
+        <v>1.05758649641129</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053081859697853</v>
+        <v>1.043593635781981</v>
       </c>
       <c r="J9">
-        <v>1.02242785176447</v>
+        <v>1.03575302322711</v>
       </c>
       <c r="K9">
-        <v>1.053858696738173</v>
+        <v>1.057580628137342</v>
       </c>
       <c r="L9">
-        <v>1.017269305566582</v>
+        <v>1.032908798283875</v>
       </c>
       <c r="M9">
-        <v>1.047873699741429</v>
+        <v>1.06068022770977</v>
       </c>
       <c r="N9">
-        <v>1.023879816588089</v>
+        <v>1.037223911322625</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9895212571059445</v>
+        <v>1.028513091030518</v>
       </c>
       <c r="D10">
-        <v>1.035491292703589</v>
+        <v>1.053319971892096</v>
       </c>
       <c r="E10">
-        <v>0.9985375577701336</v>
+        <v>1.028539072687859</v>
       </c>
       <c r="F10">
-        <v>1.028373834509</v>
+        <v>1.056164073102792</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050313798280819</v>
+        <v>1.043171674817877</v>
       </c>
       <c r="J10">
-        <v>1.018156882742743</v>
+        <v>1.034897055047055</v>
       </c>
       <c r="K10">
-        <v>1.049248004161099</v>
+        <v>1.056704808559048</v>
       </c>
       <c r="L10">
-        <v>1.012933267361765</v>
+        <v>1.032011541798521</v>
       </c>
       <c r="M10">
-        <v>1.042249015972932</v>
+        <v>1.059539141687827</v>
       </c>
       <c r="N10">
-        <v>1.019602782300464</v>
+        <v>1.036366727569573</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9862997301671177</v>
+        <v>1.027906506352577</v>
       </c>
       <c r="D11">
-        <v>1.032863106009019</v>
+        <v>1.052819063566435</v>
       </c>
       <c r="E11">
-        <v>0.9960069001063083</v>
+        <v>1.028026286752656</v>
       </c>
       <c r="F11">
-        <v>1.025285202914221</v>
+        <v>1.055548962708815</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049069740018468</v>
+        <v>1.042987510373645</v>
       </c>
       <c r="J11">
-        <v>1.016253775746628</v>
+        <v>1.034526254286263</v>
       </c>
       <c r="K11">
-        <v>1.047190788857087</v>
+        <v>1.056324915805936</v>
       </c>
       <c r="L11">
-        <v>1.011004515380215</v>
+        <v>1.031623204096148</v>
       </c>
       <c r="M11">
-        <v>1.039745527633593</v>
+        <v>1.05904507641158</v>
       </c>
       <c r="N11">
-        <v>1.017696972674126</v>
+        <v>1.035995400229169</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9850893176603099</v>
+        <v>1.027681285245589</v>
       </c>
       <c r="D12">
-        <v>1.03187614738236</v>
+        <v>1.052633030354927</v>
       </c>
       <c r="E12">
-        <v>0.9950575104687753</v>
+        <v>1.027835966126188</v>
       </c>
       <c r="F12">
-        <v>1.024125780500961</v>
+        <v>1.055320606232607</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048600540186976</v>
+        <v>1.042918885906125</v>
       </c>
       <c r="J12">
-        <v>1.015538410223281</v>
+        <v>1.03438849913038</v>
       </c>
       <c r="K12">
-        <v>1.046417112430652</v>
+        <v>1.056183709143565</v>
       </c>
       <c r="L12">
-        <v>1.010280017343326</v>
+        <v>1.031478986302048</v>
       </c>
       <c r="M12">
-        <v>1.038804918853056</v>
+        <v>1.058861564740585</v>
       </c>
       <c r="N12">
-        <v>1.016980591249682</v>
+        <v>1.035857449445165</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9853495915393601</v>
+        <v>1.027729591783195</v>
       </c>
       <c r="D13">
-        <v>1.032088347261912</v>
+        <v>1.052672933889901</v>
       </c>
       <c r="E13">
-        <v>0.9952615905016485</v>
+        <v>1.027876783695548</v>
       </c>
       <c r="F13">
-        <v>1.024375041111796</v>
+        <v>1.055369583886198</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048701511020673</v>
+        <v>1.042933615923642</v>
       </c>
       <c r="J13">
-        <v>1.015692248278317</v>
+        <v>1.034418049115834</v>
       </c>
       <c r="K13">
-        <v>1.046583506967194</v>
+        <v>1.056214002849303</v>
       </c>
       <c r="L13">
-        <v>1.010435796340196</v>
+        <v>1.031509920219368</v>
       </c>
       <c r="M13">
-        <v>1.039007175146325</v>
+        <v>1.058900928317031</v>
       </c>
       <c r="N13">
-        <v>1.017134647772401</v>
+        <v>1.035887041394987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9861999628136252</v>
+        <v>1.027887887634271</v>
       </c>
       <c r="D14">
-        <v>1.032781745594793</v>
+        <v>1.052803685455135</v>
       </c>
       <c r="E14">
-        <v>0.9959286176197925</v>
+        <v>1.028010551703863</v>
       </c>
       <c r="F14">
-        <v>1.025189616477994</v>
+        <v>1.055530084175351</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049031102300755</v>
+        <v>1.042981842288888</v>
       </c>
       <c r="J14">
-        <v>1.016194818488143</v>
+        <v>1.03451486787089</v>
       </c>
       <c r="K14">
-        <v>1.047127033484299</v>
+        <v>1.056313245603154</v>
       </c>
       <c r="L14">
-        <v>1.010944795125411</v>
+        <v>1.031611282428688</v>
       </c>
       <c r="M14">
-        <v>1.039667997883925</v>
+        <v>1.059029907146275</v>
       </c>
       <c r="N14">
-        <v>1.01763793168957</v>
+        <v>1.03598399764378</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9867220544628532</v>
+        <v>1.027985431080517</v>
       </c>
       <c r="D15">
-        <v>1.033207533780725</v>
+        <v>1.052884249358143</v>
       </c>
       <c r="E15">
-        <v>0.9963383362950939</v>
+        <v>1.028092990626465</v>
       </c>
       <c r="F15">
-        <v>1.025689872537523</v>
+        <v>1.055628990031865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049233225010747</v>
+        <v>1.043011527330115</v>
       </c>
       <c r="J15">
-        <v>1.016503334482758</v>
+        <v>1.034574518049115</v>
       </c>
       <c r="K15">
-        <v>1.047460641987776</v>
+        <v>1.056374379443209</v>
       </c>
       <c r="L15">
-        <v>1.011257324485352</v>
+        <v>1.031673738788262</v>
       </c>
       <c r="M15">
-        <v>1.040073719266124</v>
+        <v>1.059109376116045</v>
       </c>
       <c r="N15">
-        <v>1.017946885812286</v>
+        <v>1.036043732532101</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9897331653713491</v>
+        <v>1.028553360827722</v>
       </c>
       <c r="D16">
-        <v>1.03566423921557</v>
+        <v>1.053353219155044</v>
       </c>
       <c r="E16">
-        <v>0.998704218412546</v>
+        <v>1.02857312568661</v>
       </c>
       <c r="F16">
-        <v>1.02857714406667</v>
+        <v>1.056204913109455</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050395381706492</v>
+        <v>1.04318386665612</v>
       </c>
       <c r="J16">
-        <v>1.018282020416382</v>
+        <v>1.034921660561809</v>
       </c>
       <c r="K16">
-        <v>1.049383220562167</v>
+        <v>1.056730007043152</v>
       </c>
       <c r="L16">
-        <v>1.013060161406593</v>
+        <v>1.032037318379414</v>
       </c>
       <c r="M16">
-        <v>1.042413691154959</v>
+        <v>1.059571931967734</v>
       </c>
       <c r="N16">
-        <v>1.019728097683954</v>
+        <v>1.036391368026981</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9915981628687868</v>
+        <v>1.028909770046847</v>
       </c>
       <c r="D17">
-        <v>1.037186675596878</v>
+        <v>1.053647437048038</v>
       </c>
       <c r="E17">
-        <v>1.000172047851398</v>
+        <v>1.028874569129164</v>
       </c>
       <c r="F17">
-        <v>1.030367223168775</v>
+        <v>1.056566391883196</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051112013425373</v>
+        <v>1.043291582119995</v>
       </c>
       <c r="J17">
-        <v>1.019383084551489</v>
+        <v>1.035139371468972</v>
       </c>
       <c r="K17">
-        <v>1.050572658154391</v>
+        <v>1.056952907724018</v>
       </c>
       <c r="L17">
-        <v>1.014177061118011</v>
+        <v>1.032265431246949</v>
       </c>
       <c r="M17">
-        <v>1.043862961303474</v>
+        <v>1.059862090643531</v>
       </c>
       <c r="N17">
-        <v>1.020830725456426</v>
+        <v>1.036609388108603</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9926776381039977</v>
+        <v>1.029117715538302</v>
       </c>
       <c r="D18">
-        <v>1.03806814310685</v>
+        <v>1.053819065299121</v>
       </c>
       <c r="E18">
-        <v>1.001022507876608</v>
+        <v>1.029050491908005</v>
       </c>
       <c r="F18">
-        <v>1.031403956260133</v>
+        <v>1.056777314224958</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051525644600936</v>
+        <v>1.043354270533607</v>
       </c>
       <c r="J18">
-        <v>1.020020158413667</v>
+        <v>1.035266342971846</v>
       </c>
       <c r="K18">
-        <v>1.051260603883056</v>
+        <v>1.057082858443137</v>
       </c>
       <c r="L18">
-        <v>1.014823614813812</v>
+        <v>1.032398502947913</v>
       </c>
       <c r="M18">
-        <v>1.044701773420174</v>
+        <v>1.060031338339536</v>
       </c>
       <c r="N18">
-        <v>1.021468704036562</v>
+        <v>1.036736539925576</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9930443166115365</v>
+        <v>1.0291886293887</v>
       </c>
       <c r="D19">
-        <v>1.038367605146869</v>
+        <v>1.053877588754707</v>
       </c>
       <c r="E19">
-        <v>1.001311539535424</v>
+        <v>1.029110493256249</v>
       </c>
       <c r="F19">
-        <v>1.031756219453561</v>
+        <v>1.056849246459163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051665949163396</v>
+        <v>1.0433756218639</v>
       </c>
       <c r="J19">
-        <v>1.020236520680909</v>
+        <v>1.035309634301216</v>
       </c>
       <c r="K19">
-        <v>1.051494198141217</v>
+        <v>1.057127157478609</v>
       </c>
       <c r="L19">
-        <v>1.015043250334909</v>
+        <v>1.032443879866153</v>
       </c>
       <c r="M19">
-        <v>1.044986694712674</v>
+        <v>1.060089047908197</v>
       </c>
       <c r="N19">
-        <v>1.021685373563041</v>
+        <v>1.036779892733599</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9913989346149692</v>
+        <v>1.028871524701745</v>
       </c>
       <c r="D20">
-        <v>1.037024012882771</v>
+        <v>1.053615868593943</v>
       </c>
       <c r="E20">
-        <v>1.000015156483869</v>
+        <v>1.028842217169157</v>
       </c>
       <c r="F20">
-        <v>1.030175933155807</v>
+        <v>1.056527600564687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051035579319106</v>
+        <v>1.043280039766439</v>
       </c>
       <c r="J20">
-        <v>1.019265487076195</v>
+        <v>1.035116014754426</v>
       </c>
       <c r="K20">
-        <v>1.050445648961351</v>
+        <v>1.056928999147912</v>
       </c>
       <c r="L20">
-        <v>1.014057739388436</v>
+        <v>1.032240955095638</v>
       </c>
       <c r="M20">
-        <v>1.043708146446824</v>
+        <v>1.059830959038903</v>
       </c>
       <c r="N20">
-        <v>1.020712960979229</v>
+        <v>1.036585998224844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9859499364682419</v>
+        <v>1.027841270919042</v>
       </c>
       <c r="D21">
-        <v>1.03257785744442</v>
+        <v>1.052765181636209</v>
       </c>
       <c r="E21">
-        <v>0.9957324578665492</v>
+        <v>1.027971156182637</v>
       </c>
       <c r="F21">
-        <v>1.024950085180107</v>
+        <v>1.055482817435733</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048934244169992</v>
+        <v>1.042967646827835</v>
       </c>
       <c r="J21">
-        <v>1.01604706109203</v>
+        <v>1.034486357794841</v>
       </c>
       <c r="K21">
-        <v>1.046967245092224</v>
+        <v>1.056284023770195</v>
       </c>
       <c r="L21">
-        <v>1.010795133710338</v>
+        <v>1.03158143299989</v>
       </c>
       <c r="M21">
-        <v>1.039473701584774</v>
+        <v>1.058991925915085</v>
       </c>
       <c r="N21">
-        <v>1.017489964461007</v>
+        <v>1.035955447080154</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.98244373475323</v>
+        <v>1.027194039076573</v>
       </c>
       <c r="D22">
-        <v>1.029720018855146</v>
+        <v>1.052230474709083</v>
       </c>
       <c r="E22">
-        <v>0.9929851712230197</v>
+        <v>1.027424359330692</v>
       </c>
       <c r="F22">
-        <v>1.021593668457917</v>
+        <v>1.054826632676863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047571818950888</v>
+        <v>1.042769974379427</v>
       </c>
       <c r="J22">
-        <v>1.013974308793867</v>
+        <v>1.034090333454428</v>
       </c>
       <c r="K22">
-        <v>1.044724846006699</v>
+        <v>1.055877938153913</v>
       </c>
       <c r="L22">
-        <v>1.008696885964202</v>
+        <v>1.031166928483916</v>
       </c>
       <c r="M22">
-        <v>1.036749153894674</v>
+        <v>1.058464428829654</v>
       </c>
       <c r="N22">
-        <v>1.015414268616833</v>
+        <v>1.035558860339752</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9843102937625036</v>
+        <v>1.027537098388327</v>
       </c>
       <c r="D23">
-        <v>1.031241096445468</v>
+        <v>1.052513917902294</v>
       </c>
       <c r="E23">
-        <v>0.99444689676383</v>
+        <v>1.027714143398009</v>
       </c>
       <c r="F23">
-        <v>1.023379880733596</v>
+        <v>1.05517442066362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048298069608865</v>
+        <v>1.042874883372558</v>
       </c>
       <c r="J23">
-        <v>1.015077915393204</v>
+        <v>1.03430028584346</v>
       </c>
       <c r="K23">
-        <v>1.045918977487622</v>
+        <v>1.056093264901523</v>
       </c>
       <c r="L23">
-        <v>1.009813787223034</v>
+        <v>1.031386649355285</v>
       </c>
       <c r="M23">
-        <v>1.038199555050736</v>
+        <v>1.058744061140359</v>
       </c>
       <c r="N23">
-        <v>1.016519442464127</v>
+        <v>1.035769110885259</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9914889830272753</v>
+        <v>1.02888880594773</v>
       </c>
       <c r="D24">
-        <v>1.03709753334873</v>
+        <v>1.053630132970427</v>
       </c>
       <c r="E24">
-        <v>1.000086066520979</v>
+        <v>1.02885683533109</v>
       </c>
       <c r="F24">
-        <v>1.030262391672258</v>
+        <v>1.056545128451249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051070130080354</v>
+        <v>1.043285255692404</v>
       </c>
       <c r="J24">
-        <v>1.01931864022537</v>
+        <v>1.035126568696593</v>
       </c>
       <c r="K24">
-        <v>1.050503056945127</v>
+        <v>1.056939802600563</v>
       </c>
       <c r="L24">
-        <v>1.014111670903329</v>
+        <v>1.032252014761424</v>
       </c>
       <c r="M24">
-        <v>1.043778120737974</v>
+        <v>1.059845026061689</v>
       </c>
       <c r="N24">
-        <v>1.020766189611972</v>
+        <v>1.036596567154819</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9994941989918075</v>
+        <v>1.030459659870839</v>
       </c>
       <c r="D25">
-        <v>1.043638382380401</v>
+        <v>1.054926058006302</v>
       </c>
       <c r="E25">
-        <v>1.006407810465</v>
+        <v>1.03018662333195</v>
       </c>
       <c r="F25">
-        <v>1.03796107590418</v>
+        <v>1.058138808593565</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05411641812499</v>
+        <v>1.043755968068203</v>
       </c>
       <c r="J25">
-        <v>1.024038597356601</v>
+        <v>1.036084809170175</v>
       </c>
       <c r="K25">
-        <v>1.055595036386486</v>
+        <v>1.057919668247408</v>
       </c>
       <c r="L25">
-        <v>1.018907461204925</v>
+        <v>1.033256898995281</v>
       </c>
       <c r="M25">
-        <v>1.049997349697931</v>
+        <v>1.061122749507856</v>
       </c>
       <c r="N25">
-        <v>1.025492849623716</v>
+        <v>1.037556168439785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_226/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_226/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03171436517933</v>
+        <v>1.005640760340798</v>
       </c>
       <c r="D2">
-        <v>1.055960129672362</v>
+        <v>1.048665908913254</v>
       </c>
       <c r="E2">
-        <v>1.031250237884396</v>
+        <v>1.011286340006154</v>
       </c>
       <c r="F2">
-        <v>1.059412329378979</v>
+        <v>1.043889091948055</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044126946388541</v>
+        <v>1.056417610966015</v>
       </c>
       <c r="J2">
-        <v>1.036848569362812</v>
+        <v>1.02765405631872</v>
       </c>
       <c r="K2">
-        <v>1.058699152972836</v>
+        <v>1.05948646201244</v>
       </c>
       <c r="L2">
-        <v>1.034058899110663</v>
+        <v>1.022590646000642</v>
       </c>
       <c r="M2">
-        <v>1.062141903793278</v>
+        <v>1.054769057358802</v>
       </c>
       <c r="N2">
-        <v>1.0383210132595</v>
+        <v>1.02911344295226</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032626417823843</v>
+        <v>1.009976237755914</v>
       </c>
       <c r="D3">
-        <v>1.05671118962624</v>
+        <v>1.052213894673308</v>
       </c>
       <c r="E3">
-        <v>1.032024219988418</v>
+        <v>1.014740684217287</v>
       </c>
       <c r="F3">
-        <v>1.060338388259914</v>
+        <v>1.04807915965656</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044393710848061</v>
+        <v>1.058018009231886</v>
       </c>
       <c r="J3">
-        <v>1.037402803485467</v>
+        <v>1.03019858630416</v>
       </c>
       <c r="K3">
-        <v>1.059263916739493</v>
+        <v>1.062219590014138</v>
       </c>
       <c r="L3">
-        <v>1.034641498399953</v>
+        <v>1.025188366422799</v>
       </c>
       <c r="M3">
-        <v>1.062881904074405</v>
+        <v>1.058131709043174</v>
       </c>
       <c r="N3">
-        <v>1.038876034458181</v>
+        <v>1.031661586462142</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033217045858615</v>
+        <v>1.012725876327213</v>
       </c>
       <c r="D4">
-        <v>1.05719727443511</v>
+        <v>1.054464542095116</v>
       </c>
       <c r="E4">
-        <v>1.032525818448516</v>
+        <v>1.016937347517632</v>
       </c>
       <c r="F4">
-        <v>1.060938235728272</v>
+        <v>1.050740321363869</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04456511889427</v>
+        <v>1.059022201638248</v>
       </c>
       <c r="J4">
-        <v>1.037761274941911</v>
+        <v>1.031809561230173</v>
       </c>
       <c r="K4">
-        <v>1.059628789410836</v>
+        <v>1.063947232218511</v>
       </c>
       <c r="L4">
-        <v>1.035018600861784</v>
+        <v>1.026835562700944</v>
       </c>
       <c r="M4">
-        <v>1.063360728071007</v>
+        <v>1.060262623097815</v>
       </c>
       <c r="N4">
-        <v>1.03923501498521</v>
+        <v>1.033274849157331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033465457082592</v>
+        <v>1.013868946944716</v>
       </c>
       <c r="D5">
-        <v>1.057401646623391</v>
+        <v>1.055400225995255</v>
       </c>
       <c r="E5">
-        <v>1.032736875826509</v>
+        <v>1.017851901584869</v>
       </c>
       <c r="F5">
-        <v>1.061190559814199</v>
+        <v>1.051847466777755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044636889337181</v>
+        <v>1.059437026272196</v>
       </c>
       <c r="J5">
-        <v>1.037911938242098</v>
+        <v>1.032478565996584</v>
       </c>
       <c r="K5">
-        <v>1.059782044890492</v>
+        <v>1.064664010305161</v>
       </c>
       <c r="L5">
-        <v>1.035177162820825</v>
+        <v>1.027520219227035</v>
       </c>
       <c r="M5">
-        <v>1.063562022984829</v>
+        <v>1.061148016316401</v>
       </c>
       <c r="N5">
-        <v>1.039385892244565</v>
+        <v>1.033944803987246</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033507172909616</v>
+        <v>1.014060131313038</v>
       </c>
       <c r="D6">
-        <v>1.057435962866928</v>
+        <v>1.055556725362403</v>
       </c>
       <c r="E6">
-        <v>1.032772324118876</v>
+        <v>1.018004944461105</v>
       </c>
       <c r="F6">
-        <v>1.061232934785349</v>
+        <v>1.052032691597267</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044648922914034</v>
+        <v>1.05950625172466</v>
       </c>
       <c r="J6">
-        <v>1.037937233010664</v>
+        <v>1.032590418189443</v>
       </c>
       <c r="K6">
-        <v>1.05980776909203</v>
+        <v>1.064783809493109</v>
       </c>
       <c r="L6">
-        <v>1.035203787687318</v>
+        <v>1.027634724092623</v>
       </c>
       <c r="M6">
-        <v>1.063595821089726</v>
+        <v>1.061296074296734</v>
       </c>
       <c r="N6">
-        <v>1.039411222934604</v>
+        <v>1.034056815023048</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033220364705956</v>
+        <v>1.012741200100775</v>
       </c>
       <c r="D7">
-        <v>1.057200005181225</v>
+        <v>1.054477085550291</v>
       </c>
       <c r="E7">
-        <v>1.032528637880872</v>
+        <v>1.016949602507224</v>
       </c>
       <c r="F7">
-        <v>1.060941606714603</v>
+        <v>1.050755160204597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044566079032833</v>
+        <v>1.059027773154789</v>
       </c>
       <c r="J7">
-        <v>1.037763288263228</v>
+        <v>1.031818532593516</v>
       </c>
       <c r="K7">
-        <v>1.059630837757833</v>
+        <v>1.063956846920422</v>
       </c>
       <c r="L7">
-        <v>1.035020719465428</v>
+        <v>1.026844741546176</v>
       </c>
       <c r="M7">
-        <v>1.063363417795762</v>
+        <v>1.060274494389347</v>
       </c>
       <c r="N7">
-        <v>1.039237031165675</v>
+        <v>1.033283833261039</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032022499884766</v>
+        <v>1.007117772582339</v>
       </c>
       <c r="D8">
-        <v>1.056213932531792</v>
+        <v>1.049874509055481</v>
       </c>
       <c r="E8">
-        <v>1.031511646345997</v>
+        <v>1.012461914812061</v>
       </c>
       <c r="F8">
-        <v>1.059725164894339</v>
+        <v>1.045315754576493</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044217350066567</v>
+        <v>1.056965075611745</v>
       </c>
       <c r="J8">
-        <v>1.037035906904836</v>
+        <v>1.028521499011581</v>
       </c>
       <c r="K8">
-        <v>1.058890134269323</v>
+        <v>1.060418760906565</v>
       </c>
       <c r="L8">
-        <v>1.034255765414866</v>
+        <v>1.023475686540148</v>
       </c>
       <c r="M8">
-        <v>1.062391990722374</v>
+        <v>1.055914983482661</v>
       </c>
       <c r="N8">
-        <v>1.038508616842322</v>
+        <v>1.029982117513242</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029915348521731</v>
+        <v>0.9967601655614102</v>
       </c>
       <c r="D9">
-        <v>1.054477170137107</v>
+        <v>1.041403453988117</v>
       </c>
       <c r="E9">
-        <v>1.029725615884296</v>
+        <v>1.004244722662811</v>
       </c>
       <c r="F9">
-        <v>1.05758649641129</v>
+        <v>1.03532893691617</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043593635781981</v>
+        <v>1.053081859697853</v>
       </c>
       <c r="J9">
-        <v>1.03575302322711</v>
+        <v>1.022427851764469</v>
       </c>
       <c r="K9">
-        <v>1.057580628137342</v>
+        <v>1.053858696738172</v>
       </c>
       <c r="L9">
-        <v>1.032908798283875</v>
+        <v>1.017269305566581</v>
       </c>
       <c r="M9">
-        <v>1.06068022770977</v>
+        <v>1.047873699741428</v>
       </c>
       <c r="N9">
-        <v>1.037223911322625</v>
+        <v>1.023879816588089</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028513091030518</v>
+        <v>0.989521257105944</v>
       </c>
       <c r="D10">
-        <v>1.053319971892096</v>
+        <v>1.035491292703588</v>
       </c>
       <c r="E10">
-        <v>1.028539072687859</v>
+        <v>0.9985375577701328</v>
       </c>
       <c r="F10">
-        <v>1.056164073102792</v>
+        <v>1.028373834508999</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043171674817877</v>
+        <v>1.050313798280819</v>
       </c>
       <c r="J10">
-        <v>1.034897055047055</v>
+        <v>1.018156882742742</v>
       </c>
       <c r="K10">
-        <v>1.056704808559048</v>
+        <v>1.049248004161098</v>
       </c>
       <c r="L10">
-        <v>1.032011541798521</v>
+        <v>1.012933267361764</v>
       </c>
       <c r="M10">
-        <v>1.059539141687827</v>
+        <v>1.042249015972932</v>
       </c>
       <c r="N10">
-        <v>1.036366727569573</v>
+        <v>1.019602782300464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027906506352577</v>
+        <v>0.9862997301671173</v>
       </c>
       <c r="D11">
-        <v>1.052819063566435</v>
+        <v>1.032863106009019</v>
       </c>
       <c r="E11">
-        <v>1.028026286752656</v>
+        <v>0.996006900106308</v>
       </c>
       <c r="F11">
-        <v>1.055548962708815</v>
+        <v>1.025285202914222</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042987510373645</v>
+        <v>1.049069740018468</v>
       </c>
       <c r="J11">
-        <v>1.034526254286263</v>
+        <v>1.016253775746628</v>
       </c>
       <c r="K11">
-        <v>1.056324915805936</v>
+        <v>1.047190788857087</v>
       </c>
       <c r="L11">
-        <v>1.031623204096148</v>
+        <v>1.011004515380215</v>
       </c>
       <c r="M11">
-        <v>1.05904507641158</v>
+        <v>1.039745527633594</v>
       </c>
       <c r="N11">
-        <v>1.035995400229169</v>
+        <v>1.017696972674126</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027681285245589</v>
+        <v>0.9850893176603095</v>
       </c>
       <c r="D12">
-        <v>1.052633030354927</v>
+        <v>1.031876147382359</v>
       </c>
       <c r="E12">
-        <v>1.027835966126188</v>
+        <v>0.995057510468775</v>
       </c>
       <c r="F12">
-        <v>1.055320606232607</v>
+        <v>1.024125780500961</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042918885906125</v>
+        <v>1.048600540186976</v>
       </c>
       <c r="J12">
-        <v>1.03438849913038</v>
+        <v>1.015538410223281</v>
       </c>
       <c r="K12">
-        <v>1.056183709143565</v>
+        <v>1.046417112430652</v>
       </c>
       <c r="L12">
-        <v>1.031478986302048</v>
+        <v>1.010280017343326</v>
       </c>
       <c r="M12">
-        <v>1.058861564740585</v>
+        <v>1.038804918853056</v>
       </c>
       <c r="N12">
-        <v>1.035857449445165</v>
+        <v>1.016980591249682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027729591783195</v>
+        <v>0.9853495915393597</v>
       </c>
       <c r="D13">
-        <v>1.052672933889901</v>
+        <v>1.032088347261912</v>
       </c>
       <c r="E13">
-        <v>1.027876783695548</v>
+        <v>0.9952615905016484</v>
       </c>
       <c r="F13">
-        <v>1.055369583886198</v>
+        <v>1.024375041111796</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042933615923642</v>
+        <v>1.048701511020673</v>
       </c>
       <c r="J13">
-        <v>1.034418049115834</v>
+        <v>1.015692248278317</v>
       </c>
       <c r="K13">
-        <v>1.056214002849303</v>
+        <v>1.046583506967194</v>
       </c>
       <c r="L13">
-        <v>1.031509920219368</v>
+        <v>1.010435796340196</v>
       </c>
       <c r="M13">
-        <v>1.058900928317031</v>
+        <v>1.039007175146325</v>
       </c>
       <c r="N13">
-        <v>1.035887041394987</v>
+        <v>1.017134647772401</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027887887634271</v>
+        <v>0.9861999628136247</v>
       </c>
       <c r="D14">
-        <v>1.052803685455135</v>
+        <v>1.032781745594793</v>
       </c>
       <c r="E14">
-        <v>1.028010551703863</v>
+        <v>0.9959286176197919</v>
       </c>
       <c r="F14">
-        <v>1.055530084175351</v>
+        <v>1.025189616477993</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042981842288888</v>
+        <v>1.049031102300755</v>
       </c>
       <c r="J14">
-        <v>1.03451486787089</v>
+        <v>1.016194818488142</v>
       </c>
       <c r="K14">
-        <v>1.056313245603154</v>
+        <v>1.047127033484298</v>
       </c>
       <c r="L14">
-        <v>1.031611282428688</v>
+        <v>1.01094479512541</v>
       </c>
       <c r="M14">
-        <v>1.059029907146275</v>
+        <v>1.039667997883925</v>
       </c>
       <c r="N14">
-        <v>1.03598399764378</v>
+        <v>1.01763793168957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027985431080517</v>
+        <v>0.986722054462852</v>
       </c>
       <c r="D15">
-        <v>1.052884249358143</v>
+        <v>1.033207533780725</v>
       </c>
       <c r="E15">
-        <v>1.028092990626465</v>
+        <v>0.9963383362950929</v>
       </c>
       <c r="F15">
-        <v>1.055628990031865</v>
+        <v>1.025689872537523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043011527330115</v>
+        <v>1.049233225010747</v>
       </c>
       <c r="J15">
-        <v>1.034574518049115</v>
+        <v>1.016503334482757</v>
       </c>
       <c r="K15">
-        <v>1.056374379443209</v>
+        <v>1.047460641987776</v>
       </c>
       <c r="L15">
-        <v>1.031673738788262</v>
+        <v>1.011257324485351</v>
       </c>
       <c r="M15">
-        <v>1.059109376116045</v>
+        <v>1.040073719266124</v>
       </c>
       <c r="N15">
-        <v>1.036043732532101</v>
+        <v>1.017946885812284</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028553360827722</v>
+        <v>0.9897331653713489</v>
       </c>
       <c r="D16">
-        <v>1.053353219155044</v>
+        <v>1.03566423921557</v>
       </c>
       <c r="E16">
-        <v>1.02857312568661</v>
+        <v>0.998704218412546</v>
       </c>
       <c r="F16">
-        <v>1.056204913109455</v>
+        <v>1.028577144066669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04318386665612</v>
+        <v>1.050395381706492</v>
       </c>
       <c r="J16">
-        <v>1.034921660561809</v>
+        <v>1.018282020416382</v>
       </c>
       <c r="K16">
-        <v>1.056730007043152</v>
+        <v>1.049383220562166</v>
       </c>
       <c r="L16">
-        <v>1.032037318379414</v>
+        <v>1.013060161406593</v>
       </c>
       <c r="M16">
-        <v>1.059571931967734</v>
+        <v>1.042413691154959</v>
       </c>
       <c r="N16">
-        <v>1.036391368026981</v>
+        <v>1.019728097683954</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028909770046847</v>
+        <v>0.9915981628687857</v>
       </c>
       <c r="D17">
-        <v>1.053647437048038</v>
+        <v>1.037186675596876</v>
       </c>
       <c r="E17">
-        <v>1.028874569129164</v>
+        <v>1.000172047851396</v>
       </c>
       <c r="F17">
-        <v>1.056566391883196</v>
+        <v>1.030367223168773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043291582119995</v>
+        <v>1.051112013425372</v>
       </c>
       <c r="J17">
-        <v>1.035139371468972</v>
+        <v>1.019383084551487</v>
       </c>
       <c r="K17">
-        <v>1.056952907724018</v>
+        <v>1.050572658154389</v>
       </c>
       <c r="L17">
-        <v>1.032265431246949</v>
+        <v>1.014177061118009</v>
       </c>
       <c r="M17">
-        <v>1.059862090643531</v>
+        <v>1.043862961303473</v>
       </c>
       <c r="N17">
-        <v>1.036609388108603</v>
+        <v>1.020830725456424</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029117715538302</v>
+        <v>0.9926776381039969</v>
       </c>
       <c r="D18">
-        <v>1.053819065299121</v>
+        <v>1.038068143106849</v>
       </c>
       <c r="E18">
-        <v>1.029050491908005</v>
+        <v>1.001022507876607</v>
       </c>
       <c r="F18">
-        <v>1.056777314224958</v>
+        <v>1.031403956260132</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043354270533607</v>
+        <v>1.051525644600936</v>
       </c>
       <c r="J18">
-        <v>1.035266342971846</v>
+        <v>1.020020158413666</v>
       </c>
       <c r="K18">
-        <v>1.057082858443137</v>
+        <v>1.051260603883056</v>
       </c>
       <c r="L18">
-        <v>1.032398502947913</v>
+        <v>1.014823614813812</v>
       </c>
       <c r="M18">
-        <v>1.060031338339536</v>
+        <v>1.044701773420173</v>
       </c>
       <c r="N18">
-        <v>1.036736539925576</v>
+        <v>1.021468704036561</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.0291886293887</v>
+        <v>0.9930443166115362</v>
       </c>
       <c r="D19">
-        <v>1.053877588754707</v>
+        <v>1.038367605146868</v>
       </c>
       <c r="E19">
-        <v>1.029110493256249</v>
+        <v>1.001311539535424</v>
       </c>
       <c r="F19">
-        <v>1.056849246459163</v>
+        <v>1.031756219453561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0433756218639</v>
+        <v>1.051665949163395</v>
       </c>
       <c r="J19">
-        <v>1.035309634301216</v>
+        <v>1.020236520680909</v>
       </c>
       <c r="K19">
-        <v>1.057127157478609</v>
+        <v>1.051494198141217</v>
       </c>
       <c r="L19">
-        <v>1.032443879866153</v>
+        <v>1.015043250334909</v>
       </c>
       <c r="M19">
-        <v>1.060089047908197</v>
+        <v>1.044986694712674</v>
       </c>
       <c r="N19">
-        <v>1.036779892733599</v>
+        <v>1.021685373563041</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028871524701745</v>
+        <v>0.991398934614968</v>
       </c>
       <c r="D20">
-        <v>1.053615868593943</v>
+        <v>1.03702401288277</v>
       </c>
       <c r="E20">
-        <v>1.028842217169157</v>
+        <v>1.000015156483867</v>
       </c>
       <c r="F20">
-        <v>1.056527600564687</v>
+        <v>1.030175933155806</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043280039766439</v>
+        <v>1.051035579319105</v>
       </c>
       <c r="J20">
-        <v>1.035116014754426</v>
+        <v>1.019265487076194</v>
       </c>
       <c r="K20">
-        <v>1.056928999147912</v>
+        <v>1.050445648961351</v>
       </c>
       <c r="L20">
-        <v>1.032240955095638</v>
+        <v>1.014057739388435</v>
       </c>
       <c r="M20">
-        <v>1.059830959038903</v>
+        <v>1.043708146446823</v>
       </c>
       <c r="N20">
-        <v>1.036585998224844</v>
+        <v>1.020712960979228</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027841270919042</v>
+        <v>0.9859499364682409</v>
       </c>
       <c r="D21">
-        <v>1.052765181636209</v>
+        <v>1.032577857444419</v>
       </c>
       <c r="E21">
-        <v>1.027971156182637</v>
+        <v>0.9957324578665483</v>
       </c>
       <c r="F21">
-        <v>1.055482817435733</v>
+        <v>1.024950085180107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042967646827835</v>
+        <v>1.048934244169992</v>
       </c>
       <c r="J21">
-        <v>1.034486357794841</v>
+        <v>1.016047061092029</v>
       </c>
       <c r="K21">
-        <v>1.056284023770195</v>
+        <v>1.046967245092223</v>
       </c>
       <c r="L21">
-        <v>1.03158143299989</v>
+        <v>1.010795133710337</v>
       </c>
       <c r="M21">
-        <v>1.058991925915085</v>
+        <v>1.039473701584774</v>
       </c>
       <c r="N21">
-        <v>1.035955447080154</v>
+        <v>1.017489964461006</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027194039076573</v>
+        <v>0.982443734753229</v>
       </c>
       <c r="D22">
-        <v>1.052230474709083</v>
+        <v>1.029720018855145</v>
       </c>
       <c r="E22">
-        <v>1.027424359330692</v>
+        <v>0.9929851712230182</v>
       </c>
       <c r="F22">
-        <v>1.054826632676863</v>
+        <v>1.021593668457917</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042769974379427</v>
+        <v>1.047571818950888</v>
       </c>
       <c r="J22">
-        <v>1.034090333454428</v>
+        <v>1.013974308793866</v>
       </c>
       <c r="K22">
-        <v>1.055877938153913</v>
+        <v>1.044724846006698</v>
       </c>
       <c r="L22">
-        <v>1.031166928483916</v>
+        <v>1.0086968859642</v>
       </c>
       <c r="M22">
-        <v>1.058464428829654</v>
+        <v>1.036749153894673</v>
       </c>
       <c r="N22">
-        <v>1.035558860339752</v>
+        <v>1.015414268616832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027537098388327</v>
+        <v>0.9843102937625037</v>
       </c>
       <c r="D23">
-        <v>1.052513917902294</v>
+        <v>1.031241096445467</v>
       </c>
       <c r="E23">
-        <v>1.027714143398009</v>
+        <v>0.9944468967638298</v>
       </c>
       <c r="F23">
-        <v>1.05517442066362</v>
+        <v>1.023379880733596</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042874883372558</v>
+        <v>1.048298069608865</v>
       </c>
       <c r="J23">
-        <v>1.03430028584346</v>
+        <v>1.015077915393204</v>
       </c>
       <c r="K23">
-        <v>1.056093264901523</v>
+        <v>1.045918977487622</v>
       </c>
       <c r="L23">
-        <v>1.031386649355285</v>
+        <v>1.009813787223034</v>
       </c>
       <c r="M23">
-        <v>1.058744061140359</v>
+        <v>1.038199555050736</v>
       </c>
       <c r="N23">
-        <v>1.035769110885259</v>
+        <v>1.016519442464127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02888880594773</v>
+        <v>0.9914889830272747</v>
       </c>
       <c r="D24">
-        <v>1.053630132970427</v>
+        <v>1.037097533348729</v>
       </c>
       <c r="E24">
-        <v>1.02885683533109</v>
+        <v>1.000086066520978</v>
       </c>
       <c r="F24">
-        <v>1.056545128451249</v>
+        <v>1.030262391672256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043285255692404</v>
+        <v>1.051070130080354</v>
       </c>
       <c r="J24">
-        <v>1.035126568696593</v>
+        <v>1.01931864022537</v>
       </c>
       <c r="K24">
-        <v>1.056939802600563</v>
+        <v>1.050503056945126</v>
       </c>
       <c r="L24">
-        <v>1.032252014761424</v>
+        <v>1.014111670903328</v>
       </c>
       <c r="M24">
-        <v>1.059845026061689</v>
+        <v>1.043778120737973</v>
       </c>
       <c r="N24">
-        <v>1.036596567154819</v>
+        <v>1.020766189611972</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030459659870839</v>
+        <v>0.9994941989918078</v>
       </c>
       <c r="D25">
-        <v>1.054926058006302</v>
+        <v>1.043638382380401</v>
       </c>
       <c r="E25">
-        <v>1.03018662333195</v>
+        <v>1.006407810465</v>
       </c>
       <c r="F25">
-        <v>1.058138808593565</v>
+        <v>1.03796107590418</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043755968068203</v>
+        <v>1.05411641812499</v>
       </c>
       <c r="J25">
-        <v>1.036084809170175</v>
+        <v>1.024038597356601</v>
       </c>
       <c r="K25">
-        <v>1.057919668247408</v>
+        <v>1.055595036386486</v>
       </c>
       <c r="L25">
-        <v>1.033256898995281</v>
+        <v>1.018907461204925</v>
       </c>
       <c r="M25">
-        <v>1.061122749507856</v>
+        <v>1.049997349697931</v>
       </c>
       <c r="N25">
-        <v>1.037556168439785</v>
+        <v>1.025492849623716</v>
       </c>
     </row>
   </sheetData>
